--- a/excel.xlsx
+++ b/excel.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,8 +455,1571 @@
           <t>Deaths</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>162579797</v>
+      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/22/2020</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01/23/2020</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01/24/2020</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01/25/2020</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01/26/2020</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01/27/2020</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>01/28/2020</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>01/29/2020</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01/30/2020</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>01/31/2020</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>02/01/2020</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>02/02/2020</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>02/03/2020</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>02/04/2020</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>02/05/2020</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>02/06/2020</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>02/07/2020</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>02/08/2020</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>02/09/2020</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>02/10/2020</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>02/11/2020</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>02/12/2020</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>02/13/2020</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>02/14/2020</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>02/15/2020</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>02/16/2020</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>02/17/2020</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>02/18/2020</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>02/19/2020</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>02/20/2020</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>02/21/2020</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>02/22/2020</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>02/23/2020</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>02/24/2020</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>02/25/2020</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>02/26/2020</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>02/27/2020</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>02/28/2020</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>02/29/2020</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>03/01/2020</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>03/02/2020</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>03/03/2020</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>03/04/2020</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>03/05/2020</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>03/06/2020</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>03/07/2020</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>03/08/2020</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>03/09/2020</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>03/10/2020</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>03/11/2020</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>03/12/2020</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>03/13/2020</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>03/14/2020</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>03/15/2020</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>03/16/2020</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>03/17/2020</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>03/18/2020</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>03/19/2020</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>03/20/2020</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>03/21/2020</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>03/22/2020</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>03/23/2020</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>03/24/2020</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>03/25/2020</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>03/26/2020</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>03/27/2020</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>03/28/2020</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>03/29/2020</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>03/30/2020</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>03/31/2020</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>04/01/2020</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>04/02/2020</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>04/03/2020</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>04/04/2020</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>04/05/2020</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>04/06/2020</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>04/07/2020</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>04/08/2020</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>04/09/2020</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>04/10/2020</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>04/11/2020</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>04/12/2020</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>04/13/2020</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>04/14/2020</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>04/15/2020</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>04/16/2020</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>04/17/2020</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>04/18/2020</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>04/19/2020</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>04/20/2020</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>04/21/2020</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>04/22/2020</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>04/23/2020</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>04/24/2020</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>04/25/2020</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>04/26/2020</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>04/27/2020</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>04/28/2020</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>04/29/2020</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>04/30/2020</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>05/01/2020</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>05/02/2020</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>05/03/2020</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>05/04/2020</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>05/05/2020</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>05/06/2020</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>05/07/2020</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>05/08/2020</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>05/09/2020</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>05/10/2020</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>05/11/2020</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>05/12/2020</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>05/13/2020</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>05/14/2020</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>05/15/2020</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>05/16/2020</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>05/17/2020</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>05/18/2020</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>05/19/2020</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>05/20/2020</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>05/21/2020</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>05/22/2020</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>05/23/2020</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>05/24/2020</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>05/25/2020</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>05/26/2020</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>05/27/2020</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>05/28/2020</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>05/29/2020</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>05/30/2020</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>05/31/2020</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>06/01/2020</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>06/02/2020</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>06/03/2020</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>06/04/2020</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>06/05/2020</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>06/06/2020</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>06/07/2020</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>06/08/2020</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>06/09/2020</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>06/10/2020</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>06/11/2020</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>06/12/2020</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>06/13/2020</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>06/14/2020</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>06/15/2020</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>06/16/2020</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>06/17/2020</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>06/18/2020</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>06/19/2020</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>06/20/2020</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>06/21/2020</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>06/22/2020</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>06/23/2020</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>06/24/2020</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>06/25/2020</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
